--- a/7094_orders.xlsx
+++ b/7094_orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Accounting Number</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -65,16 +68,13 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Doses/Breed</t>
-  </si>
-  <si>
     <t xml:space="preserve">THS</t>
   </si>
   <si>
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
-    <t xml:space="preserve">ALLEN FARM</t>
+    <t xml:space="preserve">ALUM SPRINGS SOW FARM</t>
   </si>
   <si>
     <t xml:space="preserve">BLACK RIVER CLEAR RUN 4 38611</t>
@@ -83,76 +83,91 @@
     <t xml:space="preserve">BLACK RIVER CLEAR RUN 5 38621</t>
   </si>
   <si>
-    <t xml:space="preserve">BLACK RIVER GREEN 1 38791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLACK RIVER GREEN 2 38801</t>
-  </si>
-  <si>
     <t xml:space="preserve">MWF</t>
   </si>
   <si>
     <t xml:space="preserve">Batch</t>
   </si>
   <si>
+    <t xml:space="preserve">BLUEBERRY SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOYKIN LAKE SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITT HOG SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BULLTAIL 8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDAR BAY 1 FARROWING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDAR BAY 2 FARROWING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAIL, EDWARD SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUBLE K FARMS 38691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplin Sow 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplin Sow 2 (2806)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EARTH RIGHT SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIRWINDS FARROWING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 21491 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARM 27021 FARROW TO WEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farm 2703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 33161/BOC 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 34171/BOC 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN MEADOWS SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANDERS &amp; DAVIS SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 36201 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 35071 Farrowing</t>
+  </si>
+  <si>
     <t xml:space="preserve">Farm 37131 Farrowing</t>
   </si>
   <si>
-    <t xml:space="preserve">BNJ SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRITT HOG SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTALIA SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEDAR BAY 1 FARROWING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEDAR BAY 2 FARROWING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COASTAL PLAIN SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAIL, EDWARD SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOUBLE K FARMS 38691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplin Sow 1 (2808)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duplin Sow 2 (2806)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EARTH RIGHT SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 21491 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 33161/BOC 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 35071 Farrowing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Farm 35081 Farrowing</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 35101/BOC 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 36201 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson Sow Farm 87221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 57011 Farrowing</t>
+    <t xml:space="preserve">Farm 37311/BOC 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 55791 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARM 57101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 6179 Stoneybrook Farrow</t>
   </si>
   <si>
     <t xml:space="preserve">FARM 67011/SOW 1 FARROWING</t>
@@ -161,13 +176,7 @@
     <t xml:space="preserve">FARM 67021/SOW 2 FARROWING</t>
   </si>
   <si>
-    <t xml:space="preserve">FARM 27031 FARROW TO WEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2 Sow Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hope Sow #3</t>
+    <t xml:space="preserve">HIGHRIDGE SOW</t>
   </si>
   <si>
     <t xml:space="preserve">Legacy 2</t>
@@ -176,67 +185,49 @@
     <t xml:space="preserve">M&amp;M SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">Maple Hill Sow Farm 2745</t>
-  </si>
-  <si>
     <t xml:space="preserve">MCQUEEN FARMS II INC 38541</t>
   </si>
   <si>
-    <t xml:space="preserve">MCQUEEN FARMS INC 32061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTBACK SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINNACLE SOW</t>
+    <t xml:space="preserve">NORSHAN I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakwood Sow Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETERS CREEK SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILLIPS PARTNERS (FARM 2803)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine Ridge Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Ridge Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSEWOOD SWINE SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandhill Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTH WOODS SOW</t>
   </si>
   <si>
     <t xml:space="preserve">SOUTHERN CROSS SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">ROSEWOOD SWINE SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMPSON SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SANDERS &amp; DAVIS SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARM 27021 FARROW TO WEAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHEPARD FARMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGLETARY SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQUIRES SOW</t>
+    <t xml:space="preserve">SOUTHERN PINES 8000</t>
   </si>
   <si>
     <t xml:space="preserve">STAFFORD SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">STANTONSBURG SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMMITT SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIUMPH ASSOC LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOG CITY SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEATH SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HILL SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOLLOMAN SOW FARM</t>
+    <t xml:space="preserve">QUINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garland Sow Farm</t>
   </si>
 </sst>
 </file>
@@ -573,7 +564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -581,18 +572,18 @@
     <col min="4" max="4" width="29.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="11.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="10.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="10.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="10.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -665,30 +656,28 @@
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>2003</v>
+        <v>3957</v>
       </c>
       <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2" t="n">
-        <v>70</v>
-      </c>
+      <c r="G2" t="n">
+        <v>110</v>
+      </c>
+      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2" t="n">
-        <v>25</v>
-      </c>
+      <c r="K2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2" t="n">
+      <c r="O2" t="n">
         <v>90</v>
       </c>
-      <c r="Q2" t="n">
-        <v>185</v>
-      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2" t="n">
-        <v>2.37179487179487</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -709,26 +698,24 @@
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" t="n">
-        <v>70</v>
-      </c>
-      <c r="I3"/>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>140</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" t="n">
-        <v>60</v>
-      </c>
-      <c r="M3"/>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>30</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="n">
-        <v>160</v>
-      </c>
+      <c r="P3"/>
       <c r="Q3" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="R3" t="n">
-        <v>2.41666666666667</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -749,146 +736,138 @@
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" t="n">
+      <c r="H4"/>
+      <c r="I4" t="n">
         <v>45</v>
       </c>
-      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" t="n">
-        <v>23</v>
-      </c>
-      <c r="M4"/>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>18</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="n">
-        <v>48</v>
-      </c>
+      <c r="P4"/>
       <c r="Q4" t="n">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="R4" t="n">
-        <v>2.10909090909091</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>7094</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>38791</v>
+        <v>2042</v>
       </c>
       <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" t="n">
-        <v>20</v>
-      </c>
+      <c r="G5" t="n">
+        <v>60</v>
+      </c>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" t="n">
-        <v>35</v>
-      </c>
+      <c r="K5" t="n">
+        <v>430</v>
+      </c>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>150</v>
-      </c>
+      <c r="O5" t="n">
+        <v>690</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5"/>
       <c r="R5" t="n">
-        <v>2.14285714285714</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
         <v>7094</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>38801</v>
+        <v>6352</v>
       </c>
       <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6" t="n">
-        <v>20</v>
-      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6" t="n">
-        <v>35</v>
-      </c>
+      <c r="K6" t="n">
+        <v>250</v>
+      </c>
+      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>150</v>
-      </c>
+      <c r="O6" t="n">
+        <v>708</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6"/>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>7094</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>37131</v>
-      </c>
-      <c r="F7" t="n">
-        <v>68</v>
-      </c>
+        <v>3997</v>
+      </c>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" t="n">
-        <v>250</v>
-      </c>
+      <c r="I7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7" t="n">
-        <v>740</v>
-      </c>
+      <c r="M7" t="n">
+        <v>75</v>
+      </c>
+      <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>1058</v>
+        <v>296</v>
       </c>
       <c r="R7" t="n">
-        <v>2.39909297052154</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
@@ -905,35 +884,33 @@
         <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>62401</v>
+        <v>2680</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>120</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" t="n">
-        <v>30</v>
-      </c>
-      <c r="M8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
+        <v>175</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="n">
-        <v>115</v>
-      </c>
+      <c r="P8"/>
       <c r="Q8" t="n">
-        <v>195</v>
+        <v>390</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1195652173913</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B9" t="n">
         <v>7094</v>
@@ -945,35 +922,33 @@
         <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>3997</v>
+        <v>68021</v>
       </c>
       <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9" t="n">
-        <v>162</v>
-      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9" t="n">
-        <v>168</v>
-      </c>
+      <c r="K9" t="n">
+        <v>60</v>
+      </c>
+      <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9" t="n">
-        <v>113</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>443</v>
-      </c>
+      <c r="O9" t="n">
+        <v>45</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
       <c r="R9" t="n">
-        <v>1.94298245614035</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" t="n">
         <v>7094</v>
@@ -985,35 +960,33 @@
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>72411</v>
+        <v>68031</v>
       </c>
       <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10" t="n">
+      <c r="G10" t="n">
         <v>70</v>
       </c>
+      <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10" t="n">
-        <v>25</v>
-      </c>
+      <c r="K10" t="n">
+        <v>70</v>
+      </c>
+      <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10" t="n">
-        <v>115</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>210</v>
-      </c>
+      <c r="O10" t="n">
+        <v>45</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
       <c r="R10" t="n">
-        <v>2.41379310344828</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>7094</v>
@@ -1025,35 +998,33 @@
         <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>68021</v>
-      </c>
-      <c r="F11" t="n">
-        <v>95</v>
-      </c>
+        <v>28121</v>
+      </c>
+      <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="n">
-        <v>45</v>
-      </c>
+      <c r="I11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" t="n">
-        <v>55</v>
-      </c>
+      <c r="M11" t="n">
+        <v>75</v>
+      </c>
+      <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11" t="n">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="R11" t="n">
-        <v>2.24137931034483</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>7094</v>
@@ -1065,35 +1036,33 @@
         <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>68031</v>
-      </c>
-      <c r="F12" t="n">
-        <v>95</v>
-      </c>
+        <v>38691</v>
+      </c>
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" t="n">
+      <c r="I12" t="n">
         <v>45</v>
       </c>
+      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12" t="n">
-        <v>55</v>
-      </c>
+      <c r="M12" t="n">
+        <v>18</v>
+      </c>
+      <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12" t="n">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="R12" t="n">
-        <v>2.24137931034483</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n">
         <v>7094</v>
@@ -1105,35 +1074,33 @@
         <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>68501</v>
+        <v>6410</v>
       </c>
       <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13" t="n">
-        <v>50</v>
-      </c>
+      <c r="G13" t="n">
+        <v>58</v>
+      </c>
+      <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13" t="n">
-        <v>72</v>
-      </c>
+      <c r="K13" t="n">
+        <v>26</v>
+      </c>
+      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13" t="n">
-        <v>157</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>279</v>
-      </c>
+      <c r="O13" t="n">
+        <v>178</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
       <c r="R13" t="n">
-        <v>2.11363636363636</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
         <v>7094</v>
@@ -1145,30 +1112,28 @@
         <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>28121</v>
+        <v>6411</v>
       </c>
       <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14" t="n">
-        <v>35</v>
-      </c>
+      <c r="G14" t="n">
+        <v>230</v>
+      </c>
+      <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14" t="n">
-        <v>30</v>
-      </c>
+      <c r="K14" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>149</v>
-      </c>
+      <c r="O14" t="n">
+        <v>230</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14"/>
       <c r="R14" t="n">
-        <v>3.725</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15">
@@ -1185,35 +1150,33 @@
         <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>38691</v>
+        <v>3054</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" t="n">
-        <v>42</v>
-      </c>
-      <c r="I15"/>
+      <c r="H15"/>
+      <c r="I15" t="n">
+        <v>37</v>
+      </c>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15" t="n">
-        <v>18</v>
-      </c>
-      <c r="M15"/>
+      <c r="L15"/>
+      <c r="M15" t="n">
+        <v>55</v>
+      </c>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15" t="n">
-        <v>46</v>
-      </c>
+      <c r="P15"/>
       <c r="Q15" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="R15" t="n">
-        <v>1.92727272727273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
         <v>7094</v>
@@ -1225,155 +1188,147 @@
         <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>6410</v>
-      </c>
-      <c r="F16" t="n">
-        <v>148</v>
-      </c>
-      <c r="G16"/>
+        <v>68511</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" t="n">
+        <v>55</v>
+      </c>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" t="n">
-        <v>35</v>
-      </c>
-      <c r="K16"/>
+      <c r="J16"/>
+      <c r="K16" t="n">
+        <v>45</v>
+      </c>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16" t="n">
-        <v>200</v>
-      </c>
-      <c r="O16"/>
+      <c r="N16"/>
+      <c r="O16" t="n">
+        <v>210</v>
+      </c>
       <c r="P16"/>
-      <c r="Q16" t="n">
-        <v>383</v>
-      </c>
+      <c r="Q16"/>
       <c r="R16" t="n">
-        <v>2.85820895522388</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
         <v>7094</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>6411</v>
-      </c>
-      <c r="F17" t="n">
-        <v>150</v>
-      </c>
-      <c r="G17"/>
+        <v>21491</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" t="n">
+        <v>20</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" t="n">
-        <v>80</v>
-      </c>
-      <c r="K17"/>
+      <c r="J17"/>
+      <c r="K17" t="n">
+        <v>60</v>
+      </c>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" t="n">
-        <v>160</v>
-      </c>
-      <c r="O17"/>
+      <c r="N17"/>
+      <c r="O17" t="n">
+        <v>370</v>
+      </c>
       <c r="P17"/>
-      <c r="Q17" t="n">
-        <v>390</v>
-      </c>
+      <c r="Q17"/>
       <c r="R17" t="n">
-        <v>1.80555555555556</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>7094</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>3054</v>
-      </c>
-      <c r="F18" t="n">
-        <v>136</v>
-      </c>
-      <c r="G18"/>
+        <v>27021</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" t="n">
+        <v>100</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" t="n">
-        <v>60</v>
-      </c>
-      <c r="K18"/>
+      <c r="J18"/>
+      <c r="K18" t="n">
+        <v>40</v>
+      </c>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" t="n">
-        <v>75</v>
-      </c>
-      <c r="O18"/>
+      <c r="N18"/>
+      <c r="O18" t="n">
+        <v>720</v>
+      </c>
       <c r="P18"/>
-      <c r="Q18" t="n">
-        <v>271</v>
-      </c>
+      <c r="Q18"/>
       <c r="R18" t="n">
-        <v>2.15079365079365</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>7094</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="n">
-        <v>21491</v>
-      </c>
-      <c r="F19" t="n">
-        <v>25</v>
-      </c>
-      <c r="G19"/>
+        <v>27031</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>198</v>
+      </c>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" t="n">
+      <c r="J19"/>
+      <c r="K19" t="n">
         <v>12</v>
       </c>
-      <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" t="n">
-        <v>93</v>
-      </c>
-      <c r="O19"/>
+      <c r="N19"/>
+      <c r="O19" t="n">
+        <v>700</v>
+      </c>
       <c r="P19"/>
-      <c r="Q19" t="n">
-        <v>130</v>
-      </c>
+      <c r="Q19"/>
       <c r="R19" t="n">
-        <v>2.16666666666667</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n">
         <v>7094</v>
@@ -1387,33 +1342,31 @@
       <c r="E20" t="n">
         <v>33161</v>
       </c>
-      <c r="F20" t="n">
-        <v>255</v>
-      </c>
-      <c r="G20"/>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>50</v>
+      </c>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" t="n">
-        <v>120</v>
-      </c>
-      <c r="K20"/>
+      <c r="J20"/>
+      <c r="K20" t="n">
+        <v>150</v>
+      </c>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" t="n">
-        <v>150</v>
-      </c>
-      <c r="O20"/>
+      <c r="N20"/>
+      <c r="O20" t="n">
+        <v>294</v>
+      </c>
       <c r="P20"/>
-      <c r="Q20" t="n">
-        <v>525</v>
-      </c>
+      <c r="Q20"/>
       <c r="R20" t="n">
-        <v>2.21518987341772</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n">
         <v>7094</v>
@@ -1425,35 +1378,33 @@
         <v>41</v>
       </c>
       <c r="E21" t="n">
-        <v>35071</v>
-      </c>
-      <c r="F21" t="n">
-        <v>160</v>
-      </c>
-      <c r="G21"/>
+        <v>34171</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" t="n">
+        <v>120</v>
+      </c>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" t="n">
-        <v>80</v>
-      </c>
-      <c r="K21"/>
+      <c r="J21"/>
+      <c r="K21" t="n">
+        <v>70</v>
+      </c>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" t="n">
-        <v>200</v>
-      </c>
-      <c r="O21"/>
+      <c r="N21"/>
+      <c r="O21" t="n">
+        <v>50</v>
+      </c>
       <c r="P21"/>
-      <c r="Q21" t="n">
-        <v>440</v>
-      </c>
+      <c r="Q21"/>
       <c r="R21" t="n">
-        <v>2.14634146341463</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B22" t="n">
         <v>7094</v>
@@ -1465,35 +1416,33 @@
         <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>35081</v>
-      </c>
-      <c r="F22" t="n">
-        <v>160</v>
-      </c>
+        <v>6463</v>
+      </c>
+      <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22" t="n">
-        <v>180</v>
-      </c>
+      <c r="M22" t="n">
+        <v>50</v>
+      </c>
+      <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22" t="n">
-        <v>440</v>
+        <v>260</v>
       </c>
       <c r="R22" t="n">
-        <v>2.27979274611399</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="n">
         <v>7094</v>
@@ -1505,30 +1454,28 @@
         <v>43</v>
       </c>
       <c r="E23" t="n">
-        <v>35101</v>
-      </c>
-      <c r="F23" t="n">
-        <v>145</v>
-      </c>
+        <v>22911</v>
+      </c>
+      <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" t="n">
-        <v>70</v>
-      </c>
+      <c r="I23" t="n">
+        <v>56</v>
+      </c>
+      <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23" t="n">
-        <v>200</v>
-      </c>
+      <c r="M23" t="n">
+        <v>26</v>
+      </c>
+      <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23" t="n">
-        <v>415</v>
+        <v>56</v>
       </c>
       <c r="R23" t="n">
-        <v>2.12820512820513</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
@@ -1549,26 +1496,24 @@
       </c>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24" t="n">
-        <v>20</v>
-      </c>
-      <c r="I24"/>
+      <c r="H24"/>
+      <c r="I24" t="n">
+        <v>150</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24" t="n">
-        <v>100</v>
-      </c>
-      <c r="M24"/>
+      <c r="L24"/>
+      <c r="M24" t="n">
+        <v>35</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24" t="n">
-        <v>90</v>
-      </c>
+      <c r="P24"/>
       <c r="Q24" t="n">
+        <v>25</v>
+      </c>
+      <c r="R24" t="n">
         <v>210</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.12121212121212</v>
       </c>
     </row>
     <row r="25">
@@ -1579,81 +1524,79 @@
         <v>7094</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>87221</v>
-      </c>
-      <c r="F25"/>
+        <v>35071</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
       <c r="G25"/>
-      <c r="H25" t="n">
-        <v>25</v>
-      </c>
-      <c r="I25"/>
+      <c r="H25"/>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25" t="n">
-        <v>575</v>
-      </c>
-      <c r="M25"/>
+      <c r="L25"/>
+      <c r="M25" t="n">
+        <v>40</v>
+      </c>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25" t="n">
-        <v>450</v>
-      </c>
+      <c r="P25"/>
       <c r="Q25" t="n">
-        <v>1050</v>
+        <v>250</v>
       </c>
       <c r="R25" t="n">
-        <v>2.23880597014925</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="n">
         <v>7094</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>57011</v>
-      </c>
-      <c r="F26" t="n">
-        <v>130</v>
-      </c>
-      <c r="G26"/>
+        <v>37131</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" t="n">
+        <v>300</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" t="n">
-        <v>60</v>
-      </c>
-      <c r="K26"/>
+      <c r="J26"/>
+      <c r="K26" t="n">
+        <v>50</v>
+      </c>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" t="n">
-        <v>85</v>
-      </c>
-      <c r="O26"/>
+      <c r="N26"/>
+      <c r="O26" t="n">
+        <v>485</v>
+      </c>
       <c r="P26"/>
-      <c r="Q26" t="n">
-        <v>275</v>
-      </c>
+      <c r="Q26"/>
       <c r="R26" t="n">
-        <v>1.64670658682635</v>
+        <v>835</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
         <v>7094</v>
@@ -1665,109 +1608,107 @@
         <v>47</v>
       </c>
       <c r="E27" t="n">
-        <v>67011</v>
+        <v>35081</v>
       </c>
       <c r="F27" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27" t="n">
-        <v>45</v>
-      </c>
+      <c r="I27" t="n">
+        <v>100</v>
+      </c>
+      <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27" t="n">
-        <v>36</v>
-      </c>
+      <c r="M27" t="n">
+        <v>40</v>
+      </c>
+      <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="n">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="R27" t="n">
-        <v>1.928</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" t="n">
         <v>7094</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>67021</v>
-      </c>
-      <c r="F28" t="n">
-        <v>200</v>
-      </c>
-      <c r="G28"/>
+        <v>37311</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="n">
+        <v>100</v>
+      </c>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" t="n">
-        <v>90</v>
-      </c>
-      <c r="K28"/>
+      <c r="J28"/>
+      <c r="K28" t="n">
+        <v>100</v>
+      </c>
       <c r="L28"/>
       <c r="M28"/>
-      <c r="N28" t="n">
-        <v>204</v>
-      </c>
-      <c r="O28"/>
+      <c r="N28"/>
+      <c r="O28" t="n">
+        <v>525</v>
+      </c>
       <c r="P28"/>
-      <c r="Q28" t="n">
-        <v>494</v>
-      </c>
+      <c r="Q28"/>
       <c r="R28" t="n">
-        <v>1.93725490196078</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" t="n">
         <v>7094</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>49</v>
       </c>
       <c r="E29" t="n">
-        <v>27031</v>
-      </c>
-      <c r="F29" t="n">
-        <v>40</v>
-      </c>
-      <c r="G29"/>
+        <v>55791</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="n">
+        <v>250</v>
+      </c>
       <c r="H29"/>
       <c r="I29"/>
-      <c r="J29" t="n">
-        <v>160</v>
-      </c>
-      <c r="K29"/>
+      <c r="J29"/>
+      <c r="K29" t="n">
+        <v>70</v>
+      </c>
       <c r="L29"/>
       <c r="M29"/>
-      <c r="N29" t="n">
-        <v>800</v>
-      </c>
-      <c r="O29"/>
+      <c r="N29"/>
+      <c r="O29" t="n">
+        <v>100</v>
+      </c>
       <c r="P29"/>
-      <c r="Q29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R29"/>
+      <c r="Q29"/>
+      <c r="R29" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1783,35 +1724,33 @@
         <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>88571</v>
+        <v>57101</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30" t="n">
-        <v>55</v>
-      </c>
-      <c r="I30"/>
+      <c r="H30"/>
+      <c r="I30" t="n">
+        <v>40</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" t="n">
-        <v>25</v>
-      </c>
-      <c r="M30"/>
+      <c r="L30"/>
+      <c r="M30" t="n">
+        <v>20</v>
+      </c>
       <c r="N30"/>
       <c r="O30"/>
-      <c r="P30" t="n">
-        <v>120</v>
-      </c>
+      <c r="P30"/>
       <c r="Q30" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="R30" t="n">
-        <v>2.17391304347826</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B31" t="n">
         <v>7094</v>
@@ -1823,35 +1762,33 @@
         <v>51</v>
       </c>
       <c r="E31" t="n">
-        <v>2103</v>
-      </c>
-      <c r="F31" t="n">
-        <v>196</v>
-      </c>
+        <v>6179</v>
+      </c>
+      <c r="F31"/>
       <c r="G31"/>
-      <c r="H31"/>
+      <c r="H31" t="n">
+        <v>125</v>
+      </c>
       <c r="I31"/>
-      <c r="J31" t="n">
-        <v>34</v>
-      </c>
+      <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
+      <c r="L31" t="n">
+        <v>115</v>
+      </c>
       <c r="M31"/>
-      <c r="N31" t="n">
-        <v>30</v>
-      </c>
+      <c r="N31"/>
       <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31" t="n">
+      <c r="P31" t="n">
         <v>260</v>
       </c>
+      <c r="Q31"/>
       <c r="R31" t="n">
-        <v>2.47619047619048</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B32" t="n">
         <v>7094</v>
@@ -1863,35 +1800,33 @@
         <v>52</v>
       </c>
       <c r="E32" t="n">
-        <v>6465</v>
+        <v>67011</v>
       </c>
       <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32" t="n">
-        <v>70</v>
-      </c>
+      <c r="G32" t="n">
+        <v>132</v>
+      </c>
+      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32" t="n">
-        <v>25</v>
-      </c>
+      <c r="K32" t="n">
+        <v>21</v>
+      </c>
+      <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>225</v>
-      </c>
+      <c r="O32" t="n">
+        <v>110</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32"/>
       <c r="R32" t="n">
-        <v>1.89075630252101</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n">
         <v>7094</v>
@@ -1903,35 +1838,33 @@
         <v>53</v>
       </c>
       <c r="E33" t="n">
-        <v>62421</v>
+        <v>67021</v>
       </c>
       <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33" t="n">
-        <v>25</v>
-      </c>
+      <c r="G33" t="n">
+        <v>220</v>
+      </c>
+      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33" t="n">
-        <v>30</v>
-      </c>
+      <c r="K33" t="n">
+        <v>70</v>
+      </c>
+      <c r="L33"/>
       <c r="M33"/>
       <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33" t="n">
-        <v>110</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>165</v>
-      </c>
+      <c r="O33" t="n">
+        <v>170</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33"/>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" t="n">
         <v>7094</v>
@@ -1943,30 +1876,28 @@
         <v>54</v>
       </c>
       <c r="E34" t="n">
-        <v>2745</v>
-      </c>
-      <c r="F34" t="n">
-        <v>170</v>
-      </c>
-      <c r="G34"/>
+        <v>68521</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" t="n">
+        <v>30</v>
+      </c>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" t="n">
-        <v>50</v>
-      </c>
-      <c r="K34"/>
+      <c r="J34"/>
+      <c r="K34" t="n">
+        <v>30</v>
+      </c>
       <c r="L34"/>
       <c r="M34"/>
-      <c r="N34" t="n">
-        <v>390</v>
-      </c>
-      <c r="O34"/>
+      <c r="N34"/>
+      <c r="O34" t="n">
+        <v>220</v>
+      </c>
       <c r="P34"/>
-      <c r="Q34" t="n">
-        <v>610</v>
-      </c>
+      <c r="Q34"/>
       <c r="R34" t="n">
-        <v>1.87116564417178</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
@@ -1983,30 +1914,28 @@
         <v>55</v>
       </c>
       <c r="E35" t="n">
-        <v>38541</v>
+        <v>6465</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35" t="n">
-        <v>165</v>
-      </c>
-      <c r="I35"/>
+      <c r="H35"/>
+      <c r="I35" t="n">
+        <v>50</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35" t="n">
-        <v>80</v>
-      </c>
-      <c r="M35"/>
+      <c r="L35"/>
+      <c r="M35" t="n">
+        <v>32</v>
+      </c>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="P35" t="n">
-        <v>222</v>
-      </c>
+      <c r="P35"/>
       <c r="Q35" t="n">
-        <v>467</v>
+        <v>128</v>
       </c>
       <c r="R35" t="n">
-        <v>2.23444976076555</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36">
@@ -2023,30 +1952,28 @@
         <v>56</v>
       </c>
       <c r="E36" t="n">
-        <v>32061</v>
+        <v>62421</v>
       </c>
       <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36" t="n">
-        <v>80</v>
-      </c>
+      <c r="G36" t="n">
+        <v>40</v>
+      </c>
+      <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36" t="n">
-        <v>46</v>
-      </c>
+      <c r="K36" t="n">
+        <v>40</v>
+      </c>
+      <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36" t="n">
-        <v>138</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>264</v>
-      </c>
+      <c r="O36" t="n">
+        <v>80</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36"/>
       <c r="R36" t="n">
-        <v>2.2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
@@ -2063,35 +1990,33 @@
         <v>57</v>
       </c>
       <c r="E37" t="n">
-        <v>62451</v>
+        <v>38541</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" t="n">
-        <v>140</v>
-      </c>
-      <c r="I37"/>
+      <c r="H37"/>
+      <c r="I37" t="n">
+        <v>64</v>
+      </c>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37" t="n">
-        <v>120</v>
-      </c>
-      <c r="M37"/>
+      <c r="L37"/>
+      <c r="M37" t="n">
+        <v>50</v>
+      </c>
       <c r="N37"/>
       <c r="O37"/>
-      <c r="P37" t="n">
-        <v>265</v>
-      </c>
+      <c r="P37"/>
       <c r="Q37" t="n">
-        <v>525</v>
+        <v>348</v>
       </c>
       <c r="R37" t="n">
-        <v>2.09163346613546</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B38" t="n">
         <v>7094</v>
@@ -2103,113 +2028,109 @@
         <v>58</v>
       </c>
       <c r="E38" t="n">
-        <v>6211</v>
+        <v>28931</v>
       </c>
       <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38" t="n">
-        <v>195</v>
-      </c>
+      <c r="G38" t="n">
+        <v>90</v>
+      </c>
+      <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38" t="n">
-        <v>105</v>
-      </c>
+      <c r="K38" t="n">
+        <v>14</v>
+      </c>
+      <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38" t="n">
-        <v>220</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>520</v>
-      </c>
+      <c r="O38" t="n">
+        <v>20</v>
+      </c>
+      <c r="P38"/>
+      <c r="Q38"/>
       <c r="R38" t="n">
-        <v>2.28070175438596</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B39" t="n">
         <v>7094</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
       </c>
       <c r="E39" t="n">
-        <v>2552</v>
-      </c>
-      <c r="F39" t="n">
-        <v>100</v>
-      </c>
+        <v>6234</v>
+      </c>
+      <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39" t="n">
-        <v>450</v>
-      </c>
+      <c r="I39" t="n">
+        <v>50</v>
+      </c>
+      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39" t="n">
-        <v>880</v>
-      </c>
+      <c r="M39" t="n">
+        <v>160</v>
+      </c>
+      <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="n">
-        <v>1430</v>
-      </c>
-      <c r="R39"/>
+        <v>160</v>
+      </c>
+      <c r="R39" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B40" t="n">
         <v>7094</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
       </c>
       <c r="E40" t="n">
-        <v>68121</v>
-      </c>
-      <c r="F40" t="n">
-        <v>90</v>
-      </c>
-      <c r="G40"/>
+        <v>2453</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" t="n">
+        <v>150</v>
+      </c>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" t="n">
-        <v>25</v>
-      </c>
-      <c r="K40"/>
+      <c r="J40"/>
+      <c r="K40" t="n">
+        <v>400</v>
+      </c>
       <c r="L40"/>
       <c r="M40"/>
-      <c r="N40" t="n">
-        <v>105</v>
-      </c>
-      <c r="O40"/>
+      <c r="N40"/>
+      <c r="O40" t="n">
+        <v>800</v>
+      </c>
       <c r="P40"/>
-      <c r="Q40" t="n">
-        <v>220</v>
-      </c>
+      <c r="Q40"/>
       <c r="R40" t="n">
-        <v>2.24489795918367</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
         <v>7094</v>
@@ -2221,35 +2142,33 @@
         <v>61</v>
       </c>
       <c r="E41" t="n">
-        <v>4100</v>
-      </c>
-      <c r="F41" t="n">
-        <v>75</v>
-      </c>
+        <v>28031</v>
+      </c>
+      <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41" t="n">
-        <v>25</v>
-      </c>
+      <c r="I41" t="n">
+        <v>160</v>
+      </c>
+      <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41" t="n">
-        <v>20</v>
-      </c>
+      <c r="M41" t="n">
+        <v>37</v>
+      </c>
+      <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="R41" t="n">
-        <v>2.03389830508475</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n">
         <v>7094</v>
@@ -2261,75 +2180,71 @@
         <v>62</v>
       </c>
       <c r="E42" t="n">
-        <v>22911</v>
-      </c>
-      <c r="F42" t="n">
-        <v>80</v>
-      </c>
-      <c r="G42"/>
+        <v>62431</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42" t="n">
+        <v>70</v>
+      </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" t="n">
-        <v>38</v>
-      </c>
-      <c r="K42"/>
+      <c r="J42"/>
+      <c r="K42" t="n">
+        <v>50</v>
+      </c>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42" t="n">
-        <v>42</v>
-      </c>
-      <c r="O42"/>
+      <c r="N42"/>
+      <c r="O42" t="n">
+        <v>65</v>
+      </c>
       <c r="P42"/>
-      <c r="Q42" t="n">
-        <v>160</v>
-      </c>
+      <c r="Q42"/>
       <c r="R42" t="n">
-        <v>2.28571428571429</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B43" t="n">
         <v>7094</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>63</v>
       </c>
       <c r="E43" t="n">
-        <v>27021</v>
-      </c>
-      <c r="F43" t="n">
-        <v>20</v>
-      </c>
-      <c r="G43"/>
+        <v>68541</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43" t="n">
+        <v>170</v>
+      </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" t="n">
-        <v>300</v>
-      </c>
-      <c r="K43"/>
+      <c r="J43"/>
+      <c r="K43" t="n">
+        <v>100</v>
+      </c>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" t="n">
-        <v>725</v>
-      </c>
-      <c r="O43"/>
+      <c r="N43"/>
+      <c r="O43" t="n">
+        <v>60</v>
+      </c>
       <c r="P43"/>
-      <c r="Q43" t="n">
-        <v>1045</v>
-      </c>
+      <c r="Q43"/>
       <c r="R43" t="n">
-        <v>21.3265306122449</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" t="n">
         <v>7094</v>
@@ -2341,27 +2256,33 @@
         <v>64</v>
       </c>
       <c r="E44" t="n">
-        <v>28021</v>
+        <v>68121</v>
       </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="I44"/>
+      <c r="I44" t="n">
+        <v>75</v>
+      </c>
       <c r="J44"/>
       <c r="K44"/>
-      <c r="L44"/>
+      <c r="L44" t="n">
+        <v>18</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44"/>
+      <c r="P44" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q44"/>
+      <c r="R44" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n">
         <v>7094</v>
@@ -2373,35 +2294,33 @@
         <v>65</v>
       </c>
       <c r="E45" t="n">
-        <v>2529</v>
-      </c>
-      <c r="F45" t="n">
+        <v>68551</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45" t="n">
         <v>150</v>
       </c>
-      <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45" t="n">
-        <v>90</v>
-      </c>
-      <c r="K45"/>
+      <c r="J45"/>
+      <c r="K45" t="n">
+        <v>40</v>
+      </c>
       <c r="L45"/>
       <c r="M45"/>
-      <c r="N45" t="n">
-        <v>180</v>
-      </c>
-      <c r="O45"/>
+      <c r="N45"/>
+      <c r="O45" t="n">
+        <v>40</v>
+      </c>
       <c r="P45"/>
-      <c r="Q45" t="n">
-        <v>420</v>
-      </c>
+      <c r="Q45"/>
       <c r="R45" t="n">
-        <v>2.32044198895028</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B46" t="n">
         <v>7094</v>
@@ -2413,75 +2332,71 @@
         <v>66</v>
       </c>
       <c r="E46" t="n">
-        <v>2565</v>
-      </c>
-      <c r="F46" t="n">
-        <v>155</v>
-      </c>
-      <c r="G46"/>
+        <v>68561</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46" t="n">
+        <v>305</v>
+      </c>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" t="n">
-        <v>85</v>
-      </c>
-      <c r="K46"/>
+      <c r="J46"/>
+      <c r="K46" t="n">
+        <v>50</v>
+      </c>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" t="n">
-        <v>200</v>
-      </c>
-      <c r="O46"/>
+      <c r="N46"/>
+      <c r="O46" t="n">
+        <v>125</v>
+      </c>
       <c r="P46"/>
-      <c r="Q46" t="n">
-        <v>440</v>
-      </c>
+      <c r="Q46"/>
       <c r="R46" t="n">
-        <v>2.24489795918367</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" t="n">
         <v>7094</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
         <v>67</v>
       </c>
       <c r="E47" t="n">
-        <v>2801</v>
-      </c>
-      <c r="F47" t="n">
-        <v>190</v>
-      </c>
-      <c r="G47"/>
+        <v>2552</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47" t="n">
+        <v>130</v>
+      </c>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" t="n">
-        <v>100</v>
-      </c>
-      <c r="K47"/>
+      <c r="J47"/>
+      <c r="K47" t="n">
+        <v>300</v>
+      </c>
       <c r="L47"/>
       <c r="M47"/>
-      <c r="N47" t="n">
-        <v>190</v>
-      </c>
-      <c r="O47"/>
+      <c r="N47"/>
+      <c r="O47" t="n">
+        <v>820</v>
+      </c>
       <c r="P47"/>
-      <c r="Q47" t="n">
-        <v>480</v>
-      </c>
+      <c r="Q47"/>
       <c r="R47" t="n">
-        <v>2.06896551724138</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B48" t="n">
         <v>7094</v>
@@ -2493,35 +2408,33 @@
         <v>68</v>
       </c>
       <c r="E48" t="n">
-        <v>87681</v>
+        <v>2558</v>
       </c>
       <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48" t="n">
-        <v>95</v>
-      </c>
+      <c r="G48" t="n">
+        <v>200</v>
+      </c>
+      <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48" t="n">
-        <v>115</v>
-      </c>
+      <c r="K48" t="n">
+        <v>80</v>
+      </c>
+      <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>410</v>
-      </c>
+      <c r="O48" t="n">
+        <v>435</v>
+      </c>
+      <c r="P48"/>
+      <c r="Q48"/>
       <c r="R48" t="n">
-        <v>2.25274725274725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B49" t="n">
         <v>7094</v>
@@ -2533,35 +2446,33 @@
         <v>69</v>
       </c>
       <c r="E49" t="n">
-        <v>88581</v>
+        <v>2801</v>
       </c>
       <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49" t="n">
-        <v>25</v>
-      </c>
+      <c r="G49" t="n">
+        <v>200</v>
+      </c>
+      <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49" t="n">
-        <v>25</v>
-      </c>
+      <c r="K49" t="n">
+        <v>50</v>
+      </c>
+      <c r="L49"/>
       <c r="M49"/>
       <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49" t="n">
-        <v>94</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>144</v>
-      </c>
+      <c r="O49" t="n">
+        <v>200</v>
+      </c>
+      <c r="P49"/>
+      <c r="Q49"/>
       <c r="R49" t="n">
-        <v>2.11764705882353</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n">
         <v>7094</v>
@@ -2573,35 +2484,33 @@
         <v>70</v>
       </c>
       <c r="E50" t="n">
-        <v>38321</v>
-      </c>
-      <c r="F50" t="n">
-        <v>120</v>
-      </c>
+        <v>5695</v>
+      </c>
+      <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50" t="n">
-        <v>31</v>
-      </c>
+      <c r="I50" t="n">
+        <v>210</v>
+      </c>
+      <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50" t="n">
-        <v>76</v>
-      </c>
+      <c r="M50" t="n">
+        <v>210</v>
+      </c>
+      <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50" t="n">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="R50" t="n">
-        <v>2.06363636363636</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B51" t="n">
         <v>7094</v>
@@ -2613,150 +2522,26 @@
         <v>71</v>
       </c>
       <c r="E51" t="n">
-        <v>5054</v>
+        <v>3887</v>
       </c>
       <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51" t="n">
-        <v>64</v>
-      </c>
+      <c r="G51" t="n">
+        <v>20</v>
+      </c>
+      <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
-      <c r="L51" t="n">
-        <v>18</v>
-      </c>
+      <c r="L51"/>
       <c r="M51"/>
       <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>157</v>
-      </c>
+      <c r="O51" t="n">
+        <v>95</v>
+      </c>
+      <c r="P51"/>
+      <c r="Q51"/>
       <c r="R51" t="n">
-        <v>2.27536231884058</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" t="n">
-        <v>7094</v>
-      </c>
-      <c r="C52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" t="n">
-        <v>5055</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52" t="n">
-        <v>40</v>
-      </c>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52" t="n">
-        <v>20</v>
-      </c>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52" t="n">
-        <v>110</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>170</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.86813186813187</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" t="n">
-        <v>7094</v>
-      </c>
-      <c r="C53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5056</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53" t="n">
-        <v>100</v>
-      </c>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53" t="n">
-        <v>30</v>
-      </c>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>250</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.93798449612403</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" t="n">
-        <v>7094</v>
-      </c>
-      <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5058</v>
-      </c>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54" t="n">
-        <v>100</v>
-      </c>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54" t="n">
-        <v>30</v>
-      </c>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>250</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.92307692307692</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
